--- a/biology/Médecine/1852_en_santé_et_médecine/1852_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1852_en_santé_et_médecine/1852_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1852_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1852_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1852 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1852_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1852_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15 janvier : fondation de l'Hôpital Mont Sinaï à New York (ouvert le 5 juin 1855)[1].
-14 février : ouverture du Great Ormond Street Hospital à Londres, premier hôpital pour enfants au Royaume-Uni[2].
-L'américain George Cammann invente le stéthoscope biauriculaire[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>15 janvier : fondation de l'Hôpital Mont Sinaï à New York (ouvert le 5 juin 1855).
+14 février : ouverture du Great Ormond Street Hospital à Londres, premier hôpital pour enfants au Royaume-Uni.
+L'américain George Cammann invente le stéthoscope biauriculaire.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1852_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1852_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>27 février : Pierre Merklen (mort en 1906), clinicien, cardiologue et dermatologue français[4].
-10 août : Albert Josias (mort en 1906), hygiéniste et pédiatre français[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>27 février : Pierre Merklen (mort en 1906), clinicien, cardiologue et dermatologue français.
+10 août : Albert Josias (mort en 1906), hygiéniste et pédiatre français.
 23 septembre : William Halsted (mort en 1922), chirurgien américain.
 8 octobre : Césaire Phisalix (mort en 1906), herpétologiste.
 12 novembre : Xavier Arnozan  (mort en 1928), médecin français.</t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1852_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1852_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>6 janvier : Louis Braille (né en 1809), inventeur français du système d'écriture en relief pour aveugles qui porte son nom.
 13 janvier : Jean-Nicolas Gannal (né en 1791), pharmacien, chercheur et inventeur français, considéré comme le fondateur de l'embaumement moderne.
-11 juin : Jean-Baptiste Clémot (né en 1776), chirurgien de 1re classe de la Marine et député de la Charente-Maritime en 1815[6].</t>
+11 juin : Jean-Baptiste Clémot (né en 1776), chirurgien de 1re classe de la Marine et député de la Charente-Maritime en 1815.</t>
         </is>
       </c>
     </row>
